--- a/data/pca/factorExposure/factorExposure_2010-07-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-12.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01701653609796156</v>
+        <v>-0.01668172543616986</v>
       </c>
       <c r="C2">
-        <v>0.001110647340316201</v>
+        <v>0.0009222675787257795</v>
       </c>
       <c r="D2">
-        <v>-0.007602653637351726</v>
+        <v>-0.006941316929121833</v>
       </c>
       <c r="E2">
-        <v>0.007309519680110533</v>
+        <v>0.002412562916442357</v>
       </c>
       <c r="F2">
-        <v>-0.03566873814382119</v>
+        <v>-0.01139012904924854</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1197292554753496</v>
+        <v>-0.09515580691561465</v>
       </c>
       <c r="C4">
-        <v>-0.09247985056673448</v>
+        <v>0.01792978476808869</v>
       </c>
       <c r="D4">
-        <v>-0.005822288649135133</v>
+        <v>-0.07844140623992694</v>
       </c>
       <c r="E4">
-        <v>-0.1496125902644175</v>
+        <v>-0.0280882196362033</v>
       </c>
       <c r="F4">
-        <v>-0.08264829961345926</v>
+        <v>0.04046333724789737</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1266200820953307</v>
+        <v>-0.1516197258856708</v>
       </c>
       <c r="C6">
-        <v>-0.06729929368367571</v>
+        <v>0.02437883870836517</v>
       </c>
       <c r="D6">
-        <v>0.01034480462166414</v>
+        <v>0.01853368420626838</v>
       </c>
       <c r="E6">
-        <v>-0.0607891060593347</v>
+        <v>-0.01240770582528566</v>
       </c>
       <c r="F6">
-        <v>-0.01774194251907284</v>
+        <v>0.03950984241610323</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07014600435231225</v>
+        <v>-0.06308849975041911</v>
       </c>
       <c r="C7">
-        <v>-0.08516058266728294</v>
+        <v>0.0007311802063951951</v>
       </c>
       <c r="D7">
-        <v>-0.007969141426309874</v>
+        <v>-0.05095595021154357</v>
       </c>
       <c r="E7">
-        <v>-0.01938067139529815</v>
+        <v>-0.01362644331210771</v>
       </c>
       <c r="F7">
-        <v>0.0002294318374649137</v>
+        <v>0.05591707406584672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04006907828945609</v>
+        <v>-0.0598387267931441</v>
       </c>
       <c r="C8">
-        <v>-0.009319719833573516</v>
+        <v>-0.01269231887497168</v>
       </c>
       <c r="D8">
-        <v>-0.01337276018436765</v>
+        <v>-0.02654180178958162</v>
       </c>
       <c r="E8">
-        <v>-0.07709567001896782</v>
+        <v>-0.01028972480406027</v>
       </c>
       <c r="F8">
-        <v>-0.08412004276152024</v>
+        <v>-0.02076078859046369</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08664561404964932</v>
+        <v>-0.0730493952381871</v>
       </c>
       <c r="C9">
-        <v>-0.06232252666602675</v>
+        <v>0.01492134066775056</v>
       </c>
       <c r="D9">
-        <v>0.007504816856452498</v>
+        <v>-0.07472092160114972</v>
       </c>
       <c r="E9">
-        <v>-0.1134523865129669</v>
+        <v>-0.02032488375743322</v>
       </c>
       <c r="F9">
-        <v>-0.06285549264780002</v>
+        <v>0.06123155142897075</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1276400275307828</v>
+        <v>-0.09115539883251578</v>
       </c>
       <c r="C10">
-        <v>0.1825643128942461</v>
+        <v>0.0132615930274711</v>
       </c>
       <c r="D10">
-        <v>-0.01665520649356906</v>
+        <v>0.1739459627115216</v>
       </c>
       <c r="E10">
-        <v>0.0387134262329236</v>
+        <v>0.03389300062075543</v>
       </c>
       <c r="F10">
-        <v>0.03995110042077937</v>
+        <v>-0.05062778132836328</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06538714727879784</v>
+        <v>-0.08889802989085403</v>
       </c>
       <c r="C11">
-        <v>-0.05665473013897513</v>
+        <v>0.01394688226577136</v>
       </c>
       <c r="D11">
-        <v>0.04393054230309115</v>
+        <v>-0.1060840063589357</v>
       </c>
       <c r="E11">
-        <v>-0.08752488717618453</v>
+        <v>-0.04036206048110125</v>
       </c>
       <c r="F11">
-        <v>-0.04815284430279466</v>
+        <v>0.02761728207679917</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07457038939147934</v>
+        <v>-0.09419307347322829</v>
       </c>
       <c r="C12">
-        <v>-0.06635621732224053</v>
+        <v>0.01165695664395943</v>
       </c>
       <c r="D12">
-        <v>0.05478124223473244</v>
+        <v>-0.1109174755641368</v>
       </c>
       <c r="E12">
-        <v>-0.1284327124865519</v>
+        <v>-0.03868163155077669</v>
       </c>
       <c r="F12">
-        <v>-0.02282965193445124</v>
+        <v>0.03024813271432821</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04237837933395924</v>
+        <v>-0.04384185276093034</v>
       </c>
       <c r="C13">
-        <v>-0.04034832309844161</v>
+        <v>0.004377098748916386</v>
       </c>
       <c r="D13">
-        <v>-0.02298465741835815</v>
+        <v>-0.0377408832438883</v>
       </c>
       <c r="E13">
-        <v>-0.04921948415606067</v>
+        <v>0.01429905601112625</v>
       </c>
       <c r="F13">
-        <v>-0.02562481236174972</v>
+        <v>0.02106467842585443</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04763086833339387</v>
+        <v>-0.02218622833536798</v>
       </c>
       <c r="C14">
-        <v>-0.03044046349790449</v>
+        <v>0.01515941323375055</v>
       </c>
       <c r="D14">
-        <v>0.004176349745420545</v>
+        <v>-0.0269805445166123</v>
       </c>
       <c r="E14">
-        <v>-0.04623680070808745</v>
+        <v>-0.0155613342323719</v>
       </c>
       <c r="F14">
-        <v>-0.02037676879330456</v>
+        <v>0.02589407482478174</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02752037280066242</v>
+        <v>-0.03265543391993141</v>
       </c>
       <c r="C15">
-        <v>-0.01663633211339252</v>
+        <v>0.006203336350795416</v>
       </c>
       <c r="D15">
-        <v>-0.07361693028295099</v>
+        <v>-0.0381063778636834</v>
       </c>
       <c r="E15">
-        <v>0.001125842903600653</v>
+        <v>-0.007216371274198922</v>
       </c>
       <c r="F15">
-        <v>-0.03533635408765299</v>
+        <v>0.03483512439149889</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0787632320411958</v>
+        <v>-0.07617685498908996</v>
       </c>
       <c r="C16">
-        <v>-0.07298893164967638</v>
+        <v>0.005648290500998592</v>
       </c>
       <c r="D16">
-        <v>0.04038441772068373</v>
+        <v>-0.1090595226206772</v>
       </c>
       <c r="E16">
-        <v>-0.1049180433579023</v>
+        <v>-0.05632533943503414</v>
       </c>
       <c r="F16">
-        <v>-0.0256270772001049</v>
+        <v>0.03547317168776492</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01622327768950742</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.004328156689397398</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02453753492622888</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01123080880085084</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02959646890616862</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04408355559038128</v>
+        <v>-0.06182589272950211</v>
       </c>
       <c r="C20">
-        <v>-0.02335813675305128</v>
+        <v>0.003363469048994578</v>
       </c>
       <c r="D20">
-        <v>-0.03592154067733046</v>
+        <v>-0.06460177530891471</v>
       </c>
       <c r="E20">
-        <v>-0.07021487880861083</v>
+        <v>-0.04963212336520698</v>
       </c>
       <c r="F20">
-        <v>-0.005601257800862001</v>
+        <v>0.03245177178553225</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03018856694349258</v>
+        <v>-0.03759795948206963</v>
       </c>
       <c r="C21">
-        <v>-0.02221893543598139</v>
+        <v>0.008253751990559237</v>
       </c>
       <c r="D21">
-        <v>0.01248922454945827</v>
+        <v>-0.03457805472503993</v>
       </c>
       <c r="E21">
-        <v>-0.04430150375506237</v>
+        <v>0.01290236633676094</v>
       </c>
       <c r="F21">
-        <v>-0.03062788239315783</v>
+        <v>-0.01708165550447568</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05579218420615661</v>
+        <v>-0.04267994742092686</v>
       </c>
       <c r="C22">
-        <v>-0.02479882550417793</v>
+        <v>0.0009277092565860733</v>
       </c>
       <c r="D22">
-        <v>-0.6489520207937891</v>
+        <v>0.0009242870775963097</v>
       </c>
       <c r="E22">
-        <v>-0.01824997572901629</v>
+        <v>-0.0345941169051018</v>
       </c>
       <c r="F22">
-        <v>0.1270709375788888</v>
+        <v>-0.02597698155991681</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05635955934996029</v>
+        <v>-0.04271721471431776</v>
       </c>
       <c r="C23">
-        <v>-0.02597619717453985</v>
+        <v>0.0009505711901790612</v>
       </c>
       <c r="D23">
-        <v>-0.6510988873796969</v>
+        <v>0.0007493452169720875</v>
       </c>
       <c r="E23">
-        <v>-0.02278700238600635</v>
+        <v>-0.03495602126688586</v>
       </c>
       <c r="F23">
-        <v>0.1250462760658003</v>
+        <v>-0.02540198706625519</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07790057181337781</v>
+        <v>-0.08208965236951818</v>
       </c>
       <c r="C24">
-        <v>-0.07063303651256188</v>
+        <v>0.005601559223747203</v>
       </c>
       <c r="D24">
-        <v>0.03420209217644067</v>
+        <v>-0.1107741001978621</v>
       </c>
       <c r="E24">
-        <v>-0.1030034980341008</v>
+        <v>-0.04401959372003391</v>
       </c>
       <c r="F24">
-        <v>-0.02944278916644288</v>
+        <v>0.02779859137339189</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07508913188697698</v>
+        <v>-0.08676055025017682</v>
       </c>
       <c r="C25">
-        <v>-0.05198875212759557</v>
+        <v>0.00795396178057604</v>
       </c>
       <c r="D25">
-        <v>0.05458388167996343</v>
+        <v>-0.09545149596602993</v>
       </c>
       <c r="E25">
-        <v>-0.109842790947775</v>
+        <v>-0.02565794450835798</v>
       </c>
       <c r="F25">
-        <v>-0.03458129736340865</v>
+        <v>0.03717179594268646</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04284006253351594</v>
+        <v>-0.05707035082696647</v>
       </c>
       <c r="C26">
-        <v>-0.0173852230008041</v>
+        <v>0.01537351513806375</v>
       </c>
       <c r="D26">
-        <v>-0.01417690636158178</v>
+        <v>-0.02606076121787282</v>
       </c>
       <c r="E26">
-        <v>-0.08544659203711144</v>
+        <v>-0.02400866479746292</v>
       </c>
       <c r="F26">
-        <v>0.03279322119572035</v>
+        <v>0.001211722323918019</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.153003744413987</v>
+        <v>-0.1372578787841224</v>
       </c>
       <c r="C28">
-        <v>0.2757988222807226</v>
+        <v>0.01034806493531878</v>
       </c>
       <c r="D28">
-        <v>0.004699207960503371</v>
+        <v>0.2764889207060495</v>
       </c>
       <c r="E28">
-        <v>-0.01413771799582571</v>
+        <v>0.06583771904191656</v>
       </c>
       <c r="F28">
-        <v>0.0004657947340044767</v>
+        <v>0.0457253807179017</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04220003776808867</v>
+        <v>-0.02746611771390356</v>
       </c>
       <c r="C29">
-        <v>-0.02710461531215004</v>
+        <v>0.009421904317477319</v>
       </c>
       <c r="D29">
-        <v>0.005492786929119938</v>
+        <v>-0.02534290362313312</v>
       </c>
       <c r="E29">
-        <v>-0.03961439696307529</v>
+        <v>-0.008391878714220391</v>
       </c>
       <c r="F29">
-        <v>-0.01532467481330687</v>
+        <v>-0.007457306637762652</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08453073607217565</v>
+        <v>-0.06618808725395794</v>
       </c>
       <c r="C30">
-        <v>-0.05268832561476317</v>
+        <v>0.008376893716741423</v>
       </c>
       <c r="D30">
-        <v>0.01191988574561372</v>
+        <v>-0.07214257791579082</v>
       </c>
       <c r="E30">
-        <v>-0.2744000534485331</v>
+        <v>-0.01989620831293115</v>
       </c>
       <c r="F30">
-        <v>0.04607681950299948</v>
+        <v>0.1243589746515541</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02996306051953671</v>
+        <v>-0.04849708294366195</v>
       </c>
       <c r="C31">
-        <v>-0.05578500695366709</v>
+        <v>0.01536613830924764</v>
       </c>
       <c r="D31">
-        <v>-0.005015474328850425</v>
+        <v>-0.02926667563116111</v>
       </c>
       <c r="E31">
-        <v>-0.03491506520710054</v>
+        <v>-0.02608397919729729</v>
       </c>
       <c r="F31">
-        <v>-0.02315029761703357</v>
+        <v>-0.002169750680443241</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05643757462577056</v>
+        <v>-0.04832101660526719</v>
       </c>
       <c r="C32">
-        <v>-0.002972828149678552</v>
+        <v>0.001155902916782748</v>
       </c>
       <c r="D32">
-        <v>0.04023973875882027</v>
+        <v>-0.02315221224020856</v>
       </c>
       <c r="E32">
-        <v>-0.01732055934926454</v>
+        <v>-0.02341685278910969</v>
       </c>
       <c r="F32">
-        <v>-0.1119430238968117</v>
+        <v>0.006110590992805365</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09240027435685118</v>
+        <v>-0.09221039715661691</v>
       </c>
       <c r="C33">
-        <v>-0.06603839239097727</v>
+        <v>0.0110647179498433</v>
       </c>
       <c r="D33">
-        <v>0.01986595220828293</v>
+        <v>-0.08630175618428861</v>
       </c>
       <c r="E33">
-        <v>-0.07429121423464778</v>
+        <v>-0.04231683689437015</v>
       </c>
       <c r="F33">
-        <v>-0.009251277798126331</v>
+        <v>0.04351344010060779</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06676355122708927</v>
+        <v>-0.06937848233740372</v>
       </c>
       <c r="C34">
-        <v>-0.05205720578992724</v>
+        <v>0.01339177795664406</v>
       </c>
       <c r="D34">
-        <v>0.0487684767515994</v>
+        <v>-0.08940098423772068</v>
       </c>
       <c r="E34">
-        <v>-0.08750798947664307</v>
+        <v>-0.02703944315279135</v>
       </c>
       <c r="F34">
-        <v>-0.02985704091364193</v>
+        <v>0.05263318042331726</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02095072883256343</v>
+        <v>-0.02424919691936427</v>
       </c>
       <c r="C35">
-        <v>-0.02105880572816885</v>
+        <v>0.002508258788245975</v>
       </c>
       <c r="D35">
-        <v>0.001362670713964472</v>
+        <v>-0.009685946067922896</v>
       </c>
       <c r="E35">
-        <v>-0.01774539174071561</v>
+        <v>-0.01191282033541304</v>
       </c>
       <c r="F35">
-        <v>0.005589235688134973</v>
+        <v>0.01269711461985772</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02895263425352362</v>
+        <v>-0.02641154058428306</v>
       </c>
       <c r="C36">
-        <v>-0.02051543565444446</v>
+        <v>0.007173084398596184</v>
       </c>
       <c r="D36">
-        <v>-0.01646698340022477</v>
+        <v>-0.03820296324914139</v>
       </c>
       <c r="E36">
-        <v>-0.08646699719861199</v>
+        <v>-0.01620644285498536</v>
       </c>
       <c r="F36">
-        <v>-0.01219484441997263</v>
+        <v>0.0130672118924933</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02679187182410369</v>
+        <v>-0.003223172287569427</v>
       </c>
       <c r="C38">
-        <v>-0.05543102853023388</v>
+        <v>0.0006171973310420419</v>
       </c>
       <c r="D38">
-        <v>-0.02139818377333869</v>
+        <v>-0.003704400126952277</v>
       </c>
       <c r="E38">
-        <v>0.07507157888944697</v>
+        <v>-0.00450402019599348</v>
       </c>
       <c r="F38">
-        <v>0.1071356229835622</v>
+        <v>-0.003464907405030581</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09527384582811244</v>
+        <v>-0.1120457216506633</v>
       </c>
       <c r="C39">
-        <v>-0.07740955119760551</v>
+        <v>0.01974931148398956</v>
       </c>
       <c r="D39">
-        <v>0.1218951078412045</v>
+        <v>-0.144560006359259</v>
       </c>
       <c r="E39">
-        <v>-0.1747342736766911</v>
+        <v>-0.04851603845340119</v>
       </c>
       <c r="F39">
-        <v>0.05811277454191277</v>
+        <v>0.03943576036516253</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02596689746170506</v>
+        <v>-0.03738082259276954</v>
       </c>
       <c r="C40">
-        <v>-0.06030111040096988</v>
+        <v>0.007765213954232748</v>
       </c>
       <c r="D40">
-        <v>-0.02432251803949642</v>
+        <v>-0.02557207552556538</v>
       </c>
       <c r="E40">
-        <v>-0.03683626354337875</v>
+        <v>-0.002376985779199302</v>
       </c>
       <c r="F40">
-        <v>-0.08438601436063632</v>
+        <v>-0.01630165111949929</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03131320468285958</v>
+        <v>-0.02634869931420211</v>
       </c>
       <c r="C41">
-        <v>-0.02572381511249448</v>
+        <v>0.006870722915580034</v>
       </c>
       <c r="D41">
-        <v>0.02450136128223748</v>
+        <v>-0.0118298594372868</v>
       </c>
       <c r="E41">
-        <v>-0.01027113210880114</v>
+        <v>-0.01062829775333268</v>
       </c>
       <c r="F41">
-        <v>0.01808185649493104</v>
+        <v>-0.01217199264027012</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04690274875275446</v>
+        <v>-0.04320785161091665</v>
       </c>
       <c r="C43">
-        <v>-0.04869538341653099</v>
+        <v>0.007352709514069851</v>
       </c>
       <c r="D43">
-        <v>-0.009542717321192702</v>
+        <v>-0.02111525873533508</v>
       </c>
       <c r="E43">
-        <v>-0.03758763047730494</v>
+        <v>-0.02529943045086084</v>
       </c>
       <c r="F43">
-        <v>0.03849137639398605</v>
+        <v>-0.01158947423661825</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09383014876301417</v>
+        <v>-0.07396863885901149</v>
       </c>
       <c r="C44">
-        <v>-0.07721309318840122</v>
+        <v>0.02410119721297123</v>
       </c>
       <c r="D44">
-        <v>-0.06517544870149417</v>
+        <v>-0.09434671487177071</v>
       </c>
       <c r="E44">
-        <v>-0.09544663516434972</v>
+        <v>-0.06290609568778915</v>
       </c>
       <c r="F44">
-        <v>-0.08056360271966327</v>
+        <v>0.1837507289445149</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04009468855329074</v>
+        <v>-0.02382665073984202</v>
       </c>
       <c r="C46">
-        <v>-0.03755205749612803</v>
+        <v>0.004219186519220271</v>
       </c>
       <c r="D46">
-        <v>-0.05160134116215329</v>
+        <v>-0.008974884678748893</v>
       </c>
       <c r="E46">
-        <v>-0.01333534393938393</v>
+        <v>-0.02314197106350137</v>
       </c>
       <c r="F46">
-        <v>-0.02811116777517689</v>
+        <v>-0.005349578911638429</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05257048755165678</v>
+        <v>-0.0530687293634835</v>
       </c>
       <c r="C47">
-        <v>-0.04285416974999071</v>
+        <v>0.003549287610456511</v>
       </c>
       <c r="D47">
-        <v>-0.003051360030749013</v>
+        <v>-0.01347635429473648</v>
       </c>
       <c r="E47">
-        <v>-0.02575738038557982</v>
+        <v>-0.02251779679075091</v>
       </c>
       <c r="F47">
-        <v>0.01566742528867082</v>
+        <v>-0.04765688740425179</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04618862435518508</v>
+        <v>-0.04819921485207283</v>
       </c>
       <c r="C48">
-        <v>-0.01610208761542005</v>
+        <v>0.003327215782509566</v>
       </c>
       <c r="D48">
-        <v>0.008046925780272411</v>
+        <v>-0.04159162270671931</v>
       </c>
       <c r="E48">
-        <v>-0.08018361351355806</v>
+        <v>0.008475539827126521</v>
       </c>
       <c r="F48">
-        <v>-0.05301537029584858</v>
+        <v>0.0187732510901003</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2381021093181929</v>
+        <v>-0.2076765610785336</v>
       </c>
       <c r="C49">
-        <v>-0.06382332438683951</v>
+        <v>0.01735293055335672</v>
       </c>
       <c r="D49">
-        <v>0.04128428383408615</v>
+        <v>0.005157950726321929</v>
       </c>
       <c r="E49">
-        <v>0.2707202978687184</v>
+        <v>-0.0422310892626629</v>
       </c>
       <c r="F49">
-        <v>0.1031658197767044</v>
+        <v>0.0345825946400791</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03679598990855504</v>
+        <v>-0.04876540233962413</v>
       </c>
       <c r="C50">
-        <v>-0.04625680881094679</v>
+        <v>0.01155792149421709</v>
       </c>
       <c r="D50">
-        <v>0.009952401052606011</v>
+        <v>-0.02796132477715123</v>
       </c>
       <c r="E50">
-        <v>-0.06661874951948378</v>
+        <v>-0.02809123420975566</v>
       </c>
       <c r="F50">
-        <v>0.003084556025752446</v>
+        <v>0.006289207859943467</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03333336931446969</v>
+        <v>-0.003760250213944903</v>
       </c>
       <c r="C51">
-        <v>-0.004749196367292112</v>
+        <v>0.000881555701514252</v>
       </c>
       <c r="D51">
-        <v>0.002324983198508427</v>
+        <v>0.001371238478810456</v>
       </c>
       <c r="E51">
-        <v>0.05359935014616018</v>
+        <v>-0.001800117829366145</v>
       </c>
       <c r="F51">
-        <v>0.009010646683418612</v>
+        <v>0.004117690001426163</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.01740315270434787</v>
+        <v>-0.1405972589592952</v>
       </c>
       <c r="C52">
-        <v>-0.006437826907003242</v>
+        <v>0.01264148665363601</v>
       </c>
       <c r="D52">
-        <v>0.02380672766154826</v>
+        <v>-0.05157893699696637</v>
       </c>
       <c r="E52">
-        <v>-0.003590966865466097</v>
+        <v>-0.01470817215241766</v>
       </c>
       <c r="F52">
-        <v>0.005985674377987759</v>
+        <v>0.03040662582415008</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1468403888819135</v>
+        <v>-0.17249275386871</v>
       </c>
       <c r="C53">
-        <v>-0.05983589060412461</v>
+        <v>0.01536741460554784</v>
       </c>
       <c r="D53">
-        <v>-0.01082393258278742</v>
+        <v>-0.02068369542320479</v>
       </c>
       <c r="E53">
-        <v>0.05283791113676448</v>
+        <v>-0.03835988829764041</v>
       </c>
       <c r="F53">
-        <v>0.09140451405137251</v>
+        <v>0.05726537582047139</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.060703320993826</v>
+        <v>-0.02212568699268653</v>
       </c>
       <c r="C54">
-        <v>-0.03147904166587561</v>
+        <v>0.01304533526290503</v>
       </c>
       <c r="D54">
-        <v>-0.01320089158214817</v>
+        <v>-0.02793082280169953</v>
       </c>
       <c r="E54">
-        <v>-0.120165921628942</v>
+        <v>-0.01545939873985417</v>
       </c>
       <c r="F54">
-        <v>-0.07806392177822513</v>
+        <v>0.000596817562689586</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08038772738321248</v>
+        <v>-0.1139794529479893</v>
       </c>
       <c r="C55">
-        <v>-0.04814195314097788</v>
+        <v>0.01438853375750175</v>
       </c>
       <c r="D55">
-        <v>0.03086136792807183</v>
+        <v>-0.01797283289653237</v>
       </c>
       <c r="E55">
-        <v>0.01100549527689993</v>
+        <v>-0.02945908244365643</v>
       </c>
       <c r="F55">
-        <v>0.01950786409136872</v>
+        <v>0.04675882119435627</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1386989127023228</v>
+        <v>-0.1770742526221535</v>
       </c>
       <c r="C56">
-        <v>-0.09342652072219146</v>
+        <v>0.0128282195378012</v>
       </c>
       <c r="D56">
-        <v>0.01860587321437348</v>
+        <v>-0.01849929754483709</v>
       </c>
       <c r="E56">
-        <v>0.02474711438936571</v>
+        <v>-0.04273634652097375</v>
       </c>
       <c r="F56">
-        <v>0.06304369489045732</v>
+        <v>0.02659063481155696</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03550447523716602</v>
+        <v>-0.04718277999518929</v>
       </c>
       <c r="C58">
-        <v>-0.02876141989575915</v>
+        <v>0.00381020015348176</v>
       </c>
       <c r="D58">
-        <v>-0.03414381452220993</v>
+        <v>-0.0605877312566158</v>
       </c>
       <c r="E58">
-        <v>-0.04427884135568583</v>
+        <v>-0.01303575522063776</v>
       </c>
       <c r="F58">
-        <v>0.003464452171777585</v>
+        <v>-0.04292767832775861</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2155536222793844</v>
+        <v>-0.1700364028419482</v>
       </c>
       <c r="C59">
-        <v>0.241665326136484</v>
+        <v>0.0124486129546973</v>
       </c>
       <c r="D59">
-        <v>0.04821935064687542</v>
+        <v>0.2331968979668922</v>
       </c>
       <c r="E59">
-        <v>0.02959438439999147</v>
+        <v>0.04668362543297166</v>
       </c>
       <c r="F59">
-        <v>-0.03435966929683449</v>
+        <v>-0.03083512768237683</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2352215432077051</v>
+        <v>-0.2402871620406806</v>
       </c>
       <c r="C60">
-        <v>-0.1409726481885425</v>
+        <v>-0.004134167837988837</v>
       </c>
       <c r="D60">
-        <v>0.07781965716763523</v>
+        <v>-0.05673883659298656</v>
       </c>
       <c r="E60">
-        <v>0.1168543873287855</v>
+        <v>-0.0121249247870416</v>
       </c>
       <c r="F60">
-        <v>0.03352726081179529</v>
+        <v>-0.04471510696162943</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0924637372670544</v>
+        <v>-0.08596240228945649</v>
       </c>
       <c r="C61">
-        <v>-0.06616615363027407</v>
+        <v>0.01508101806539096</v>
       </c>
       <c r="D61">
-        <v>0.06752254425202545</v>
+        <v>-0.1039364237811759</v>
       </c>
       <c r="E61">
-        <v>-0.1444932694021903</v>
+        <v>-0.03344801483639351</v>
       </c>
       <c r="F61">
-        <v>0.005851708686336591</v>
+        <v>0.02536761256992574</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1326676511301196</v>
+        <v>-0.1682367967496392</v>
       </c>
       <c r="C62">
-        <v>-0.07988927425803531</v>
+        <v>0.01669378480004253</v>
       </c>
       <c r="D62">
-        <v>0.006132570328089962</v>
+        <v>-0.01705552106980036</v>
       </c>
       <c r="E62">
-        <v>0.03897609332766613</v>
+        <v>-0.03776632334105241</v>
       </c>
       <c r="F62">
-        <v>0.0539613359351474</v>
+        <v>0.01238873421453986</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0445133594179172</v>
+        <v>-0.04291274297252589</v>
       </c>
       <c r="C63">
-        <v>-0.01796897004016214</v>
+        <v>0.004533937143518592</v>
       </c>
       <c r="D63">
-        <v>0.008813552959245966</v>
+        <v>-0.04486257780340359</v>
       </c>
       <c r="E63">
-        <v>-0.0705291037932137</v>
+        <v>-0.01365777687262765</v>
       </c>
       <c r="F63">
-        <v>0.00444431196314204</v>
+        <v>0.01272307977292672</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09771274317170325</v>
+        <v>-0.1123554140376823</v>
       </c>
       <c r="C64">
-        <v>-0.0577980745516513</v>
+        <v>0.0123459498273689</v>
       </c>
       <c r="D64">
-        <v>0.0005130579797385373</v>
+        <v>-0.03668045249919481</v>
       </c>
       <c r="E64">
-        <v>-0.07143680006746164</v>
+        <v>-0.0185367911076369</v>
       </c>
       <c r="F64">
-        <v>0.01551153473409623</v>
+        <v>0.01710385929783334</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1194803672707673</v>
+        <v>-0.1425520193002107</v>
       </c>
       <c r="C65">
-        <v>-0.03934995987935254</v>
+        <v>0.03069401955090605</v>
       </c>
       <c r="D65">
-        <v>0.02242407096045159</v>
+        <v>0.04509986468228023</v>
       </c>
       <c r="E65">
-        <v>-0.09560391613477601</v>
+        <v>-0.002986643753346108</v>
       </c>
       <c r="F65">
-        <v>4.857830361526953e-06</v>
+        <v>0.04173893564583921</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.106724647569652</v>
+        <v>-0.1343316944166363</v>
       </c>
       <c r="C66">
-        <v>-0.114174015596007</v>
+        <v>0.01741125655659602</v>
       </c>
       <c r="D66">
-        <v>0.1177652739254165</v>
+        <v>-0.1307165764690251</v>
       </c>
       <c r="E66">
-        <v>-0.1576761805813616</v>
+        <v>-0.05817246847965504</v>
       </c>
       <c r="F66">
-        <v>0.05714813280283756</v>
+        <v>0.04464720153660733</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08314463653363612</v>
+        <v>-0.06552806302102081</v>
       </c>
       <c r="C67">
-        <v>-0.06759415042079878</v>
+        <v>0.004462890415413362</v>
       </c>
       <c r="D67">
-        <v>-0.02157358838779383</v>
+        <v>-0.05660680087862226</v>
       </c>
       <c r="E67">
-        <v>0.04962826198702928</v>
+        <v>-0.01916701286738221</v>
       </c>
       <c r="F67">
-        <v>0.1281608840780186</v>
+        <v>-0.04307765973393053</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1301637540703712</v>
+        <v>-0.110946150059261</v>
       </c>
       <c r="C68">
-        <v>0.2718163188257101</v>
+        <v>0.02149504730638355</v>
       </c>
       <c r="D68">
-        <v>0.01735143549567392</v>
+        <v>0.275520724669528</v>
       </c>
       <c r="E68">
-        <v>-0.04504767455456335</v>
+        <v>0.08470682755325117</v>
       </c>
       <c r="F68">
-        <v>0.01099047294556589</v>
+        <v>0.04996357193606613</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04296771482606657</v>
+        <v>-0.04058982294286678</v>
       </c>
       <c r="C69">
-        <v>-0.01884718466950791</v>
+        <v>0.001215056984217251</v>
       </c>
       <c r="D69">
-        <v>-0.01027658161547995</v>
+        <v>-0.008819615267058108</v>
       </c>
       <c r="E69">
-        <v>-0.01644764685188055</v>
+        <v>-0.0260346048812714</v>
       </c>
       <c r="F69">
-        <v>0.03899269720250153</v>
+        <v>-0.01663074567057996</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0532648017282628</v>
+        <v>-0.06467057098478762</v>
       </c>
       <c r="C70">
-        <v>-0.05742722655699197</v>
+        <v>-0.02699507725394806</v>
       </c>
       <c r="D70">
-        <v>0.02495232940443001</v>
+        <v>-0.009141960811827539</v>
       </c>
       <c r="E70">
-        <v>-0.06302437261692258</v>
+        <v>0.04276352052958453</v>
       </c>
       <c r="F70">
-        <v>-0.009841008193275262</v>
+        <v>-0.3382755267945056</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1477593896411006</v>
+        <v>-0.1295935319961142</v>
       </c>
       <c r="C71">
-        <v>0.2780945025584157</v>
+        <v>0.02497121362497447</v>
       </c>
       <c r="D71">
-        <v>0.01197295941480347</v>
+        <v>0.2905021501611906</v>
       </c>
       <c r="E71">
-        <v>-0.05722438586513045</v>
+        <v>0.09225211448126448</v>
       </c>
       <c r="F71">
-        <v>0.01357451782229291</v>
+        <v>0.05233411965116298</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1265814162108981</v>
+        <v>-0.1384377163618342</v>
       </c>
       <c r="C72">
-        <v>-0.02762816215751484</v>
+        <v>0.02391515897580896</v>
       </c>
       <c r="D72">
-        <v>0.01161836506162801</v>
+        <v>-0.01039176236736999</v>
       </c>
       <c r="E72">
-        <v>-0.0516687010760426</v>
+        <v>-0.04223750683668922</v>
       </c>
       <c r="F72">
-        <v>0.05120972881625553</v>
+        <v>0.02455168047413358</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2258522202776315</v>
+        <v>-0.2099658816681088</v>
       </c>
       <c r="C73">
-        <v>-0.1313120844738708</v>
+        <v>0.01185903426676018</v>
       </c>
       <c r="D73">
-        <v>0.1524227841537183</v>
+        <v>-0.02594363958534887</v>
       </c>
       <c r="E73">
-        <v>0.4572106913577212</v>
+        <v>-0.07127703413403218</v>
       </c>
       <c r="F73">
-        <v>0.2279307903779341</v>
+        <v>0.02171690208690006</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08816581362819589</v>
+        <v>-0.09367963448247553</v>
       </c>
       <c r="C74">
-        <v>-0.08799067900254492</v>
+        <v>0.01185907042096798</v>
       </c>
       <c r="D74">
-        <v>0.007768048439291944</v>
+        <v>-0.02880164056691756</v>
       </c>
       <c r="E74">
-        <v>0.01987520156880171</v>
+        <v>-0.05130143171084506</v>
       </c>
       <c r="F74">
-        <v>0.0943315893606356</v>
+        <v>0.04063966910111048</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08486035083513467</v>
+        <v>-0.1296127537469242</v>
       </c>
       <c r="C75">
-        <v>-0.06257105211292686</v>
+        <v>0.02608029376895652</v>
       </c>
       <c r="D75">
-        <v>0.004488166876696485</v>
+        <v>-0.03872758006427961</v>
       </c>
       <c r="E75">
-        <v>-0.007429453230627672</v>
+        <v>-0.05878464129665482</v>
       </c>
       <c r="F75">
-        <v>0.01355131938797583</v>
+        <v>0.007053135567806965</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.07875838655750474</v>
+        <v>-0.00922606510148178</v>
       </c>
       <c r="C76">
-        <v>-0.07824376588316641</v>
+        <v>0.00205069920807996</v>
       </c>
       <c r="D76">
-        <v>-0.001949349979127007</v>
+        <v>-0.004133310368312595</v>
       </c>
       <c r="E76">
-        <v>0.04952622077854655</v>
+        <v>-0.009432843807901083</v>
       </c>
       <c r="F76">
-        <v>0.03232284139086002</v>
+        <v>0.002555135655775856</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06821554095539323</v>
+        <v>-0.0810037399874471</v>
       </c>
       <c r="C77">
-        <v>-0.01130212085825633</v>
+        <v>0.01200582839386307</v>
       </c>
       <c r="D77">
-        <v>0.04162405134623334</v>
+        <v>-0.09847408057710466</v>
       </c>
       <c r="E77">
-        <v>-0.1941419662679913</v>
+        <v>-0.02999905705179394</v>
       </c>
       <c r="F77">
-        <v>-0.1262273817858161</v>
+        <v>0.04015508415783024</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1840658933288047</v>
+        <v>-0.1104165447082602</v>
       </c>
       <c r="C78">
-        <v>-0.1438067381893918</v>
+        <v>0.04468227626050763</v>
       </c>
       <c r="D78">
-        <v>-0.1697878223983349</v>
+        <v>-0.1151225801272866</v>
       </c>
       <c r="E78">
-        <v>0.07284221689003248</v>
+        <v>-0.0890910010748075</v>
       </c>
       <c r="F78">
-        <v>-0.6655343679706786</v>
+        <v>0.07752124247789596</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1286189732881168</v>
+        <v>-0.1621015517727241</v>
       </c>
       <c r="C79">
-        <v>-0.07858996219937915</v>
+        <v>0.0200751034471809</v>
       </c>
       <c r="D79">
-        <v>-0.008484619258669765</v>
+        <v>-0.02361154844417404</v>
       </c>
       <c r="E79">
-        <v>0.008355659671854717</v>
+        <v>-0.04863670360231312</v>
       </c>
       <c r="F79">
-        <v>0.04130137348622061</v>
+        <v>0.004685147831716053</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06877386444638273</v>
+        <v>-0.08001390668997643</v>
       </c>
       <c r="C80">
-        <v>-0.04144173939287922</v>
+        <v>-0.001335373446209876</v>
       </c>
       <c r="D80">
-        <v>0.07567826410349382</v>
+        <v>-0.052779854734178</v>
       </c>
       <c r="E80">
-        <v>-0.06102217027422651</v>
+        <v>-0.02777998240103801</v>
       </c>
       <c r="F80">
-        <v>0.0478726138142611</v>
+        <v>-0.01100406660562173</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.120263272805984</v>
+        <v>-0.1217806981522246</v>
       </c>
       <c r="C81">
-        <v>-0.04896786559555732</v>
+        <v>0.02974855202231956</v>
       </c>
       <c r="D81">
-        <v>-0.01231101434359626</v>
+        <v>-0.02841574542447083</v>
       </c>
       <c r="E81">
-        <v>-0.05909382403568308</v>
+        <v>-0.05828001936404856</v>
       </c>
       <c r="F81">
-        <v>0.02994884417028804</v>
+        <v>-0.003739937907677463</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1202162670558043</v>
+        <v>-0.1620663716061841</v>
       </c>
       <c r="C82">
-        <v>-0.05845665867300492</v>
+        <v>0.02051728458313966</v>
       </c>
       <c r="D82">
-        <v>0.003987309073349503</v>
+        <v>-0.02302626048217994</v>
       </c>
       <c r="E82">
-        <v>-0.0150492893578036</v>
+        <v>-0.03455850440191948</v>
       </c>
       <c r="F82">
-        <v>0.08916391835908156</v>
+        <v>0.05139287417545547</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08160724591283613</v>
+        <v>-0.06653701360882619</v>
       </c>
       <c r="C83">
-        <v>-0.08060429897707341</v>
+        <v>0.004166984033207627</v>
       </c>
       <c r="D83">
-        <v>0.009947187405483756</v>
+        <v>-0.04580981463980415</v>
       </c>
       <c r="E83">
-        <v>-0.05058406031485423</v>
+        <v>-0.003690716899785071</v>
       </c>
       <c r="F83">
-        <v>0.08573583309248452</v>
+        <v>-0.0314474201717663</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04713140947109611</v>
+        <v>-0.06082136462110406</v>
       </c>
       <c r="C84">
-        <v>0.05291435710446887</v>
+        <v>0.01193654731419139</v>
       </c>
       <c r="D84">
-        <v>0.04330934149045137</v>
+        <v>-0.05887206585848952</v>
       </c>
       <c r="E84">
-        <v>0.02522655066478948</v>
+        <v>0.003758457460446178</v>
       </c>
       <c r="F84">
-        <v>-0.1970149256732259</v>
+        <v>0.01456243969019832</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1206010393320835</v>
+        <v>-0.1375099201245725</v>
       </c>
       <c r="C85">
-        <v>-0.0556944132466362</v>
+        <v>0.02540770966730991</v>
       </c>
       <c r="D85">
-        <v>0.008263652911187849</v>
+        <v>-0.02116350014155954</v>
       </c>
       <c r="E85">
-        <v>0.01100949404457846</v>
+        <v>-0.04048352999182678</v>
       </c>
       <c r="F85">
-        <v>0.06309131006058068</v>
+        <v>0.03948308477992445</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08871108832609036</v>
+        <v>-0.1005239185154758</v>
       </c>
       <c r="C86">
-        <v>-0.01383370698893528</v>
+        <v>-0.006761641629397677</v>
       </c>
       <c r="D86">
-        <v>-0.02644374351965182</v>
+        <v>-0.01255864490904212</v>
       </c>
       <c r="E86">
-        <v>0.2972232269947369</v>
+        <v>-0.1319866171902008</v>
       </c>
       <c r="F86">
-        <v>-0.436059935261376</v>
+        <v>-0.8303786081188553</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1165682246949607</v>
+        <v>-0.1013127233514228</v>
       </c>
       <c r="C87">
-        <v>-0.06403108215049742</v>
+        <v>0.02619634884743112</v>
       </c>
       <c r="D87">
-        <v>-0.02068105312596</v>
+        <v>-0.0692687347868547</v>
       </c>
       <c r="E87">
-        <v>-0.06526037325552053</v>
+        <v>0.05334932276457906</v>
       </c>
       <c r="F87">
-        <v>-0.03493710796405828</v>
+        <v>0.09326447536405959</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05877171412993036</v>
+        <v>-0.06077630346155401</v>
       </c>
       <c r="C88">
-        <v>-0.06086124840939021</v>
+        <v>0.003580352727420114</v>
       </c>
       <c r="D88">
-        <v>0.03486155030670332</v>
+        <v>-0.05795858194952746</v>
       </c>
       <c r="E88">
-        <v>-0.02717300154787792</v>
+        <v>-0.02429024124140172</v>
       </c>
       <c r="F88">
-        <v>0.0176376617613017</v>
+        <v>0.006898807760555907</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2333707447845624</v>
+        <v>-0.1317355264715041</v>
       </c>
       <c r="C89">
-        <v>0.3695370164079024</v>
+        <v>0.004144969969218342</v>
       </c>
       <c r="D89">
-        <v>-0.04787778312347286</v>
+        <v>0.2767564679718979</v>
       </c>
       <c r="E89">
-        <v>0.03080657402464817</v>
+        <v>0.090847095180843</v>
       </c>
       <c r="F89">
-        <v>-0.0163969191965415</v>
+        <v>0.03356619123302285</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1561336609119413</v>
+        <v>-0.1415697340260155</v>
       </c>
       <c r="C90">
-        <v>0.2604079288806391</v>
+        <v>0.02063703801419071</v>
       </c>
       <c r="D90">
-        <v>0.01060804828141574</v>
+        <v>0.2759395512041749</v>
       </c>
       <c r="E90">
-        <v>-0.01514727061473733</v>
+        <v>0.1030550820200344</v>
       </c>
       <c r="F90">
-        <v>0.0180073794274295</v>
+        <v>0.03811367756583581</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07496453620279445</v>
+        <v>-0.116542173314362</v>
       </c>
       <c r="C91">
-        <v>-0.0612264813986964</v>
+        <v>0.01604923553892403</v>
       </c>
       <c r="D91">
-        <v>-0.006297673507296377</v>
+        <v>-0.003649639924896866</v>
       </c>
       <c r="E91">
-        <v>0.01786762585034922</v>
+        <v>-0.05885565109997067</v>
       </c>
       <c r="F91">
-        <v>-0.006193831935275001</v>
+        <v>-0.03055330985903014</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1694262730831222</v>
+        <v>-0.1442607261373526</v>
       </c>
       <c r="C92">
-        <v>0.2965184371530799</v>
+        <v>0.012032945612899</v>
       </c>
       <c r="D92">
-        <v>-0.03037742826599287</v>
+        <v>0.3119801589645739</v>
       </c>
       <c r="E92">
-        <v>-0.04632377757313835</v>
+        <v>0.09938386719463187</v>
       </c>
       <c r="F92">
-        <v>-0.02321643580357497</v>
+        <v>0.0296751535832268</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1721276941030627</v>
+        <v>-0.1459836079799428</v>
       </c>
       <c r="C93">
-        <v>0.3048873495277331</v>
+        <v>0.0173045866414521</v>
       </c>
       <c r="D93">
-        <v>0.04064889808346804</v>
+        <v>0.2802439342267144</v>
       </c>
       <c r="E93">
-        <v>-0.01349861175040716</v>
+        <v>0.06947683774439314</v>
       </c>
       <c r="F93">
-        <v>-0.002046271221971507</v>
+        <v>0.02947486306656522</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1141507525449205</v>
+        <v>-0.1332316236785783</v>
       </c>
       <c r="C94">
-        <v>-0.08428051787097741</v>
+        <v>0.0235292043592372</v>
       </c>
       <c r="D94">
-        <v>-0.007245022453483154</v>
+        <v>-0.05167311493823618</v>
       </c>
       <c r="E94">
-        <v>0.01250916454798083</v>
+        <v>-0.06114932277664826</v>
       </c>
       <c r="F94">
-        <v>0.04275069139830731</v>
+        <v>0.02512641596781005</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.142128173613994</v>
+        <v>-0.1275534532117975</v>
       </c>
       <c r="C95">
-        <v>-0.06055955553719274</v>
+        <v>0.006534782143326446</v>
       </c>
       <c r="D95">
-        <v>-0.01828546865789126</v>
+        <v>-0.08794430013816451</v>
       </c>
       <c r="E95">
-        <v>-0.03977301979785707</v>
+        <v>-0.0402755753483078</v>
       </c>
       <c r="F95">
-        <v>-0.1073638183116456</v>
+        <v>-0.008492511120845234</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0952400049910516</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.9893557310218803</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01340317463143835</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06036269817102834</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05053721248254266</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1155747009512639</v>
+        <v>-0.1874362349203429</v>
       </c>
       <c r="C97">
-        <v>0.01573127616126721</v>
+        <v>-0.01268132115149456</v>
       </c>
       <c r="D97">
-        <v>-0.01577232265746944</v>
+        <v>0.008712800380983541</v>
       </c>
       <c r="E97">
-        <v>-0.3104633702578244</v>
+        <v>-0.01404825881886134</v>
       </c>
       <c r="F97">
-        <v>0.1747011855091894</v>
+        <v>-0.1662160570362222</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2580775411391561</v>
+        <v>-0.2079780050693096</v>
       </c>
       <c r="C98">
-        <v>-0.1276081285026911</v>
+        <v>0.007474491608430073</v>
       </c>
       <c r="D98">
-        <v>-0.05395521266365166</v>
+        <v>-0.01678552190447658</v>
       </c>
       <c r="E98">
-        <v>0.2459166913193075</v>
+        <v>0.08618422596493036</v>
       </c>
       <c r="F98">
-        <v>0.07836073931155586</v>
+        <v>-0.1435210561711468</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07469181931428012</v>
+        <v>-0.05775878453466463</v>
       </c>
       <c r="C99">
-        <v>-0.0573249057566117</v>
+        <v>-0.00311436613729164</v>
       </c>
       <c r="D99">
-        <v>-0.01430034358128721</v>
+        <v>-0.03199478024002974</v>
       </c>
       <c r="E99">
-        <v>0.0400891771874787</v>
+        <v>-0.02637761543661561</v>
       </c>
       <c r="F99">
-        <v>0.01261650306462676</v>
+        <v>0.003734682583512608</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1227631146428376</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04760896780545582</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.3214824948746975</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9075255786014943</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.06037635034916487</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04254096799612524</v>
+        <v>-0.02734494156225513</v>
       </c>
       <c r="C101">
-        <v>-0.02654411042563553</v>
+        <v>0.009337059553954832</v>
       </c>
       <c r="D101">
-        <v>0.005708020190636998</v>
+        <v>-0.02499086134611901</v>
       </c>
       <c r="E101">
-        <v>-0.03723902624971952</v>
+        <v>-0.00855406043060008</v>
       </c>
       <c r="F101">
-        <v>-0.01567507774428521</v>
+        <v>-0.009489976295629927</v>
       </c>
     </row>
     <row r="102" spans="1:6">
